--- a/Modelo-PO/Dados Louvor Shalom.xlsx
+++ b/Modelo-PO/Dados Louvor Shalom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\hmbarros\Louvor-Shalom\Modelo-PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144D47E-B9F3-47D1-A7AD-8D936509D3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF3A64F-E4B3-41BE-8E97-4BB5033B2F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="799" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +218,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -231,7 +234,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006600"/>
@@ -830,7 +933,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G1" sqref="G1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1278,47 +1381,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H18 I2:I4 I18 B19:F19">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1336,7 +1439,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+      <selection activeCell="A7" sqref="A7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1527,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1761,52 +1864,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D18 D2:E4 B2:C18 E5:E18 D6 D8:D9 D11:D12">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1820,7 +1923,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1829,16 +1932,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2">
@@ -1894,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F28:F29"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2050,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3045,10 +3148,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:S14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3066,7 +3169,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3075,7 +3178,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/Modelo-PO/Dados Louvor Shalom.xlsx
+++ b/Modelo-PO/Dados Louvor Shalom.xlsx
@@ -520,7 +520,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7.57"/>
@@ -1021,7 +1021,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.57"/>
@@ -1118,10 +1118,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.86"/>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1</v>
@@ -1603,7 +1603,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.57"/>
@@ -1679,7 +1679,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="10.12"/>
   </cols>
@@ -1839,7 +1839,7 @@
       <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.57"/>
   </cols>
@@ -2899,7 +2899,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
   </cols>
